--- a/Descargas/R15_5º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_5º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B29" s="65">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B46" s="65">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
